--- a/BackTest/2020-01-15 BackTest XLM.xlsx
+++ b/BackTest/2020-01-15 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>51848.08945252998</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>51848.08945252998</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>54</v>
@@ -521,7 +521,7 @@
         <v>51848.08945252998</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>54</v>
@@ -562,9 +562,11 @@
         <v>44868.44875252998</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>54</v>
+      </c>
       <c r="J5" t="n">
         <v>54</v>
       </c>
@@ -601,7 +603,7 @@
         <v>44882.28445252998</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>53.86</v>
@@ -642,9 +644,11 @@
         <v>44882.28445252998</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>54</v>
+      </c>
       <c r="J7" t="n">
         <v>54</v>
       </c>
@@ -681,9 +685,11 @@
         <v>44534.08445252998</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>54</v>
+      </c>
       <c r="J8" t="n">
         <v>54</v>
       </c>
@@ -720,9 +726,11 @@
         <v>44554.87385252999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>53.97</v>
+      </c>
       <c r="J9" t="n">
         <v>54</v>
       </c>
@@ -759,7 +767,7 @@
         <v>27372.43065252998</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>54</v>
@@ -800,7 +808,7 @@
         <v>26635.43065252998</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>53.99</v>
@@ -841,7 +849,7 @@
         <v>26263.70035252998</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>53.97</v>
@@ -882,7 +890,7 @@
         <v>30406.04425252998</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>53.96</v>
@@ -923,7 +931,7 @@
         <v>30406.04425252998</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>53.97</v>
@@ -964,7 +972,7 @@
         <v>25406.04425252998</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>53.97</v>
@@ -1005,7 +1013,7 @@
         <v>25423.34735252999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>53.93</v>
@@ -1046,7 +1054,7 @@
         <v>25423.34735252999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>54</v>
@@ -1087,7 +1095,7 @@
         <v>25423.34735252999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>54</v>
@@ -1128,7 +1136,7 @@
         <v>25423.34735252999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>54</v>
@@ -1169,7 +1177,7 @@
         <v>80744.45185252998</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>54</v>
@@ -1210,7 +1218,7 @@
         <v>80744.45185252998</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>54.3</v>
@@ -1251,9 +1259,11 @@
         <v>80744.45185252998</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>54.3</v>
+      </c>
       <c r="J22" t="n">
         <v>54</v>
       </c>
@@ -1290,9 +1300,11 @@
         <v>80701.45185252998</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>54.3</v>
+      </c>
       <c r="J23" t="n">
         <v>54</v>
       </c>
@@ -1329,9 +1341,11 @@
         <v>80701.45185252998</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>54.29</v>
+      </c>
       <c r="J24" t="n">
         <v>54</v>
       </c>
@@ -1368,9 +1382,11 @@
         <v>79882.45185252998</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>54.29</v>
+      </c>
       <c r="J25" t="n">
         <v>54</v>
       </c>
@@ -1407,9 +1423,11 @@
         <v>80257.92385252997</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>54.24</v>
+      </c>
       <c r="J26" t="n">
         <v>54</v>
       </c>
@@ -1446,9 +1464,11 @@
         <v>74725.04075252997</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>54.32</v>
+      </c>
       <c r="J27" t="n">
         <v>54</v>
       </c>
@@ -1485,9 +1505,11 @@
         <v>70117.99575252997</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>54.15</v>
+      </c>
       <c r="J28" t="n">
         <v>54</v>
       </c>
@@ -1524,7 +1546,7 @@
         <v>70117.99575252997</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>54.12</v>
@@ -1565,7 +1587,7 @@
         <v>70117.99575252997</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>54.12</v>
@@ -1606,7 +1628,7 @@
         <v>70314.07145252997</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>54.12</v>
@@ -1647,7 +1669,7 @@
         <v>70314.07145252997</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>54.32</v>
@@ -1688,9 +1710,11 @@
         <v>70314.07145252997</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>54.32</v>
+      </c>
       <c r="J33" t="n">
         <v>54</v>
       </c>
@@ -1727,9 +1751,11 @@
         <v>70314.07145252997</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>54.32</v>
+      </c>
       <c r="J34" t="n">
         <v>54</v>
       </c>
@@ -1766,9 +1792,11 @@
         <v>60894.57565252997</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>54.32</v>
+      </c>
       <c r="J35" t="n">
         <v>54</v>
       </c>
@@ -1805,9 +1833,11 @@
         <v>42201.10895252996</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>54.31</v>
+      </c>
       <c r="J36" t="n">
         <v>54</v>
       </c>
@@ -1844,9 +1874,11 @@
         <v>41270.55145252996</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>54.21</v>
+      </c>
       <c r="J37" t="n">
         <v>54</v>
       </c>
@@ -1883,9 +1915,11 @@
         <v>41270.55145252996</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>54.09</v>
+      </c>
       <c r="J38" t="n">
         <v>54</v>
       </c>
@@ -1922,9 +1956,11 @@
         <v>41270.55145252996</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>54.09</v>
+      </c>
       <c r="J39" t="n">
         <v>54</v>
       </c>
@@ -1961,9 +1997,11 @@
         <v>41695.67535252996</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>54.09</v>
+      </c>
       <c r="J40" t="n">
         <v>54</v>
       </c>
@@ -2000,9 +2038,11 @@
         <v>41695.67535252996</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>54.3</v>
+      </c>
       <c r="J41" t="n">
         <v>54</v>
       </c>
@@ -2117,9 +2157,11 @@
         <v>43689.59677189996</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>54.3</v>
+      </c>
       <c r="J44" t="n">
         <v>54</v>
       </c>
@@ -2156,9 +2198,11 @@
         <v>43689.59677189996</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>54.39</v>
+      </c>
       <c r="J45" t="n">
         <v>54</v>
       </c>
@@ -2507,9 +2551,11 @@
         <v>-38706.36923381004</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>54.27</v>
+      </c>
       <c r="J54" t="n">
         <v>54</v>
       </c>
@@ -2546,9 +2592,11 @@
         <v>-38706.36923381004</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>54.47</v>
+      </c>
       <c r="J55" t="n">
         <v>54</v>
       </c>
@@ -2585,9 +2633,11 @@
         <v>-38706.36923381004</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>54.47</v>
+      </c>
       <c r="J56" t="n">
         <v>54</v>
       </c>
@@ -2624,9 +2674,11 @@
         <v>-37680.91103381004</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>54.47</v>
+      </c>
       <c r="J57" t="n">
         <v>54</v>
       </c>
@@ -2780,9 +2832,11 @@
         <v>-60480.48093381004</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>54.56</v>
+      </c>
       <c r="J61" t="n">
         <v>54</v>
       </c>
@@ -2858,9 +2912,11 @@
         <v>-295291.8351338101</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>54.37</v>
+      </c>
       <c r="J63" t="n">
         <v>54</v>
       </c>
@@ -2897,9 +2953,11 @@
         <v>-291785.4458338101</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>54.27</v>
+      </c>
       <c r="J64" t="n">
         <v>54</v>
       </c>
@@ -2936,9 +2994,11 @@
         <v>-290837.4458338101</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>54.37</v>
+      </c>
       <c r="J65" t="n">
         <v>54</v>
       </c>
@@ -17366,7 +17426,7 @@
         <v>246818428.7097683</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
@@ -17405,7 +17465,7 @@
         <v>246818428.7097683</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
@@ -17444,7 +17504,7 @@
         <v>246812887.9094683</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
@@ -17483,7 +17543,7 @@
         <v>246822827.4582683</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
@@ -17522,7 +17582,7 @@
         <v>246831015.8382683</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
@@ -17990,7 +18050,7 @@
         <v>247203110.4640106</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
@@ -17998,11 +18058,11 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L451" t="n">
-        <v>1.035185185185185</v>
+        <v>1</v>
       </c>
       <c r="M451" t="inlineStr"/>
     </row>
@@ -18032,8 +18092,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>54</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -18065,8 +18131,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>54</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -18098,8 +18170,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>54</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -18128,11 +18206,17 @@
         <v>247223975.2850106</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>54</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -18164,8 +18248,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>54</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -18197,8 +18287,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>54</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -18230,8 +18326,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>54</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18263,8 +18365,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>54</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18293,13 +18401,19 @@
         <v>245687687.5823106</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>54</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L460" t="n">
-        <v>1</v>
+        <v>1.028703703703704</v>
       </c>
       <c r="M460" t="inlineStr"/>
     </row>
@@ -18326,7 +18440,7 @@
         <v>245678405.0803106</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -18359,7 +18473,7 @@
         <v>245678405.0803106</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -18392,7 +18506,7 @@
         <v>245679153.3794106</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -18425,7 +18539,7 @@
         <v>245673804.8204106</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -18458,7 +18572,7 @@
         <v>245673804.8204106</v>
       </c>
       <c r="H465" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -18491,7 +18605,7 @@
         <v>245693380.9310106</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -18524,7 +18638,7 @@
         <v>245673829.7799106</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -18557,7 +18671,7 @@
         <v>245693142.8604106</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -18590,7 +18704,7 @@
         <v>245671022.5708146</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -18623,7 +18737,7 @@
         <v>245655112.3106146</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -18656,7 +18770,7 @@
         <v>245618016.5156147</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -18689,7 +18803,7 @@
         <v>245618016.5156147</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -18722,7 +18836,7 @@
         <v>245618016.5156147</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -18755,7 +18869,7 @@
         <v>245519166.3059147</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -19283,7 +19397,7 @@
         <v>245468809.4982147</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -19316,7 +19430,7 @@
         <v>245342040.2455147</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -19349,7 +19463,7 @@
         <v>245342040.2455147</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -19382,7 +19496,7 @@
         <v>245300294.6011147</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -19415,7 +19529,7 @@
         <v>245300294.6011147</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -19448,7 +19562,7 @@
         <v>245292026.8948147</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -19481,7 +19595,7 @@
         <v>245292026.8948147</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19514,7 +19628,7 @@
         <v>245292035.9006147</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19547,7 +19661,7 @@
         <v>245295449.2556147</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19580,7 +19694,7 @@
         <v>245295459.2556147</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19613,7 +19727,7 @@
         <v>245295459.2556147</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19646,7 +19760,7 @@
         <v>245290229.9681147</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19679,7 +19793,7 @@
         <v>245313134.8092147</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19712,7 +19826,7 @@
         <v>245308084.8143147</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19745,7 +19859,7 @@
         <v>245362819.1398147</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19778,7 +19892,7 @@
         <v>245437221.1265147</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19811,7 +19925,7 @@
         <v>245437221.1265147</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19844,7 +19958,7 @@
         <v>245317780.7822147</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19877,7 +19991,7 @@
         <v>245317780.7822147</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19910,7 +20024,7 @@
         <v>245317780.7822147</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19943,7 +20057,7 @@
         <v>245317830.7822147</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19976,7 +20090,7 @@
         <v>245313313.5407147</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -20009,7 +20123,7 @@
         <v>245313313.5407147</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -20042,7 +20156,7 @@
         <v>245315715.9331147</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -20075,7 +20189,7 @@
         <v>245288175.4305147</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -20108,7 +20222,7 @@
         <v>245310683.6976712</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -20141,7 +20255,7 @@
         <v>245301289.3042712</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -20174,7 +20288,7 @@
         <v>245301289.3042712</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -20207,7 +20321,7 @@
         <v>245322834.0161712</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -20240,7 +20354,7 @@
         <v>245295979.2541712</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -20273,7 +20387,7 @@
         <v>245295979.2541712</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -20306,7 +20420,7 @@
         <v>245295979.2541712</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -20339,7 +20453,7 @@
         <v>245296697.6156712</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -20372,7 +20486,7 @@
         <v>245293101.3013712</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -20405,7 +20519,7 @@
         <v>245293101.3013712</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -20438,7 +20552,7 @@
         <v>245293101.3013712</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -20471,7 +20585,7 @@
         <v>245293674.9885487</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -20504,7 +20618,7 @@
         <v>245218035.0030487</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20537,7 +20651,7 @@
         <v>245218035.0030487</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20570,7 +20684,7 @@
         <v>245218035.0030487</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20603,7 +20717,7 @@
         <v>245237856.1202487</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20636,7 +20750,7 @@
         <v>245173188.6195487</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20669,7 +20783,7 @@
         <v>245178072.6321487</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20702,7 +20816,7 @@
         <v>245178731.9474487</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20735,7 +20849,7 @@
         <v>245178731.9474487</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20768,7 +20882,7 @@
         <v>245172820.4171487</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20801,7 +20915,7 @@
         <v>245161800.0080487</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20834,7 +20948,7 @@
         <v>245186624.4911886</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20867,7 +20981,7 @@
         <v>245186624.4911886</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20900,7 +21014,7 @@
         <v>245186341.7911886</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20933,7 +21047,7 @@
         <v>245186341.7911886</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20966,7 +21080,7 @@
         <v>245185776.6065284</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20999,7 +21113,7 @@
         <v>245184714.1384284</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -21032,7 +21146,7 @@
         <v>245184714.1384284</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -21164,7 +21278,7 @@
         <v>245184714.1384284</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -21263,7 +21377,7 @@
         <v>245275580.0664284</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -21296,7 +21410,7 @@
         <v>245275580.0664284</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -21329,7 +21443,7 @@
         <v>245314944.4428284</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -21362,7 +21476,7 @@
         <v>245396694.5737284</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21461,7 +21575,7 @@
         <v>245296937.8954743</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -21494,7 +21608,7 @@
         <v>245259933.6120743</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -21527,7 +21641,7 @@
         <v>245260445.7374743</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21560,7 +21674,7 @@
         <v>245259844.7374743</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21626,7 +21740,7 @@
         <v>245220847.5449743</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21659,7 +21773,7 @@
         <v>245169316.4146743</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21692,7 +21806,7 @@
         <v>245053968.3551743</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21725,7 +21839,7 @@
         <v>245079026.9231743</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -21758,7 +21872,7 @@
         <v>245079026.9231743</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21791,7 +21905,7 @@
         <v>245038639.7557743</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -21824,7 +21938,7 @@
         <v>245028181.9815743</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -21857,7 +21971,7 @@
         <v>245033693.9815743</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -21890,7 +22004,7 @@
         <v>245035855.5663743</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21923,7 +22037,7 @@
         <v>245103851.9993743</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21956,7 +22070,7 @@
         <v>245103851.9993743</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -21989,7 +22103,7 @@
         <v>245103851.9993743</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -22022,7 +22136,7 @@
         <v>245151314.8891743</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -22055,7 +22169,7 @@
         <v>245149047.0646743</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -22088,7 +22202,7 @@
         <v>245136965.4028744</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -22121,7 +22235,7 @@
         <v>245136965.4028744</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -22154,7 +22268,7 @@
         <v>245136965.4028744</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -22187,7 +22301,7 @@
         <v>245136965.4028744</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -22220,7 +22334,7 @@
         <v>245105383.3463744</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -22253,7 +22367,7 @@
         <v>245159233.8872744</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -22286,7 +22400,7 @@
         <v>245026794.7120744</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -22319,7 +22433,7 @@
         <v>244995682.4852744</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -22517,7 +22631,7 @@
         <v>244838905.8136217</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22550,7 +22664,7 @@
         <v>244841205.8136217</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22583,7 +22697,7 @@
         <v>244833696.8136217</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22616,7 +22730,7 @@
         <v>244835761.9695217</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22649,7 +22763,7 @@
         <v>244835761.9695217</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22682,7 +22796,7 @@
         <v>244835761.9695217</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22715,7 +22829,7 @@
         <v>244821588.3335217</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22748,7 +22862,7 @@
         <v>244821588.3335217</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -22781,7 +22895,7 @@
         <v>244845900.7402216</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -22814,7 +22928,7 @@
         <v>244845900.7402216</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22847,7 +22961,7 @@
         <v>244827132.4595217</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22880,7 +22994,7 @@
         <v>244813598.4845217</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -22913,7 +23027,7 @@
         <v>244813598.4845217</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -22946,7 +23060,7 @@
         <v>244821399.6164217</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -22979,7 +23093,7 @@
         <v>244785895.8196217</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -23012,7 +23126,7 @@
         <v>244781240.6747217</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -23045,7 +23159,7 @@
         <v>244771876.5099217</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -23078,7 +23192,7 @@
         <v>244799578.7085217</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -23111,7 +23225,7 @@
         <v>244799578.7085217</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -23177,7 +23291,7 @@
         <v>244890165.1765217</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -23375,7 +23489,7 @@
         <v>245131895.3042217</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -23408,7 +23522,7 @@
         <v>245169358.7220217</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -23540,7 +23654,7 @@
         <v>245279564.5043217</v>
       </c>
       <c r="H619" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -23573,7 +23687,7 @@
         <v>245281564.5043217</v>
       </c>
       <c r="H620" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -23606,7 +23720,7 @@
         <v>245281564.5043217</v>
       </c>
       <c r="H621" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -23639,7 +23753,7 @@
         <v>245252066.5324217</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -23672,7 +23786,7 @@
         <v>245252066.5324217</v>
       </c>
       <c r="H623" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -23705,7 +23819,7 @@
         <v>245176413.9121217</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -23738,7 +23852,7 @@
         <v>245176413.9121217</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -23771,7 +23885,7 @@
         <v>245179037.7376218</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -23804,7 +23918,7 @@
         <v>245179037.7376218</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -23837,7 +23951,7 @@
         <v>245179037.7376218</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -23870,7 +23984,7 @@
         <v>245169771.8320217</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -23903,7 +24017,7 @@
         <v>245178282.0085217</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -23936,7 +24050,7 @@
         <v>245205301.5744217</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -23969,7 +24083,7 @@
         <v>245217781.5993217</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -24002,7 +24116,7 @@
         <v>245305192.0524708</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -24035,7 +24149,7 @@
         <v>245269225.3914708</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -24068,7 +24182,7 @@
         <v>245282198.3178708</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -24101,7 +24215,7 @@
         <v>245261819.1286708</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -24134,7 +24248,7 @@
         <v>245243170.8413708</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -24167,7 +24281,7 @@
         <v>245243170.8413708</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -24200,7 +24314,7 @@
         <v>245243381.2680803</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -24233,7 +24347,7 @@
         <v>245243381.2680803</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -24266,7 +24380,7 @@
         <v>245253618.5192803</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -24299,7 +24413,7 @@
         <v>245254571.9048803</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -24332,7 +24446,7 @@
         <v>245184473.9521803</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -24365,7 +24479,7 @@
         <v>245195827.5548118</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -24398,7 +24512,7 @@
         <v>245153888.1412118</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -24431,7 +24545,7 @@
         <v>245153888.1412118</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -24464,7 +24578,7 @@
         <v>245170429.0179118</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -24497,7 +24611,7 @@
         <v>245170429.0179118</v>
       </c>
       <c r="H648" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -24530,7 +24644,7 @@
         <v>245170429.0179118</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -24563,7 +24677,7 @@
         <v>245170429.0179118</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -24596,7 +24710,7 @@
         <v>245149129.6404118</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -24629,7 +24743,7 @@
         <v>245186623.8902118</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -24662,7 +24776,7 @@
         <v>245158259.9638118</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -24695,7 +24809,7 @@
         <v>244818958.6334118</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -24728,7 +24842,7 @@
         <v>244818958.6334118</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -24761,7 +24875,7 @@
         <v>244832749.6786118</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -24794,7 +24908,7 @@
         <v>244910413.5992118</v>
       </c>
       <c r="H657" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -24827,7 +24941,7 @@
         <v>244954768.245032</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -24860,7 +24974,7 @@
         <v>245346515.595532</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -24893,7 +25007,7 @@
         <v>245346515.595532</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -24926,7 +25040,7 @@
         <v>245366927.309432</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -24959,7 +25073,7 @@
         <v>245294396.202932</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -24992,7 +25106,7 @@
         <v>245222755.346532</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -25025,7 +25139,7 @@
         <v>245244097.942932</v>
       </c>
       <c r="H664" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -25058,7 +25172,7 @@
         <v>245367935.894032</v>
       </c>
       <c r="H665" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -25091,7 +25205,7 @@
         <v>245367935.894032</v>
       </c>
       <c r="H666" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -25124,7 +25238,7 @@
         <v>245367935.894032</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -25157,7 +25271,7 @@
         <v>245943299.9442419</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -25190,7 +25304,7 @@
         <v>245943299.9442419</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -25201,6 +25315,6 @@
       <c r="M669" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest XLM.xlsx
+++ b/BackTest/2020-01-15 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>51848.08945252998</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -1259,11 +1259,9 @@
         <v>80744.45185252998</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>54.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>54</v>
       </c>
@@ -1341,11 +1339,9 @@
         <v>80701.45185252998</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>54.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>54</v>
       </c>
@@ -1382,11 +1378,9 @@
         <v>79882.45185252998</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>54.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>54</v>
       </c>
@@ -1423,11 +1417,9 @@
         <v>80257.92385252997</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>54.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>54</v>
       </c>
@@ -1464,11 +1456,9 @@
         <v>74725.04075252997</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>54.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>54</v>
       </c>
@@ -1505,11 +1495,9 @@
         <v>70117.99575252997</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>54.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>54</v>
       </c>
@@ -1669,11 +1657,9 @@
         <v>70314.07145252997</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>54.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>54</v>
       </c>
@@ -1710,11 +1696,9 @@
         <v>70314.07145252997</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>54.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>54</v>
       </c>
@@ -1751,11 +1735,9 @@
         <v>70314.07145252997</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>54.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>54</v>
       </c>
@@ -1792,11 +1774,9 @@
         <v>60894.57565252997</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>54.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>54</v>
       </c>
@@ -1833,11 +1813,9 @@
         <v>42201.10895252996</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>54.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>54</v>
       </c>
@@ -1874,11 +1852,9 @@
         <v>41270.55145252996</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>54.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>54</v>
       </c>
@@ -2157,11 +2133,9 @@
         <v>43689.59677189996</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>54.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>54</v>
       </c>
@@ -2198,11 +2172,9 @@
         <v>43689.59677189996</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>54.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>54</v>
       </c>
@@ -2551,11 +2523,9 @@
         <v>-38706.36923381004</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>54.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>54</v>
       </c>
@@ -2592,11 +2562,9 @@
         <v>-38706.36923381004</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>54.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>54</v>
       </c>
@@ -2633,11 +2601,9 @@
         <v>-38706.36923381004</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>54.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>54</v>
       </c>
@@ -2674,11 +2640,9 @@
         <v>-37680.91103381004</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>54.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>54</v>
       </c>
@@ -2832,11 +2796,9 @@
         <v>-60480.48093381004</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>54.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>54</v>
       </c>
@@ -2912,11 +2874,9 @@
         <v>-295291.8351338101</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>54.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
         <v>54</v>
       </c>
@@ -2953,11 +2913,9 @@
         <v>-291785.4458338101</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>54.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>54</v>
       </c>
@@ -2994,11 +2952,9 @@
         <v>-290837.4458338101</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>54.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>54</v>
       </c>
@@ -5609,7 +5565,7 @@
         <v>460868.3450127199</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
@@ -5617,11 +5573,11 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L132" t="n">
-        <v>1</v>
+        <v>1.016296296296296</v>
       </c>
       <c r="M132" t="inlineStr"/>
     </row>
@@ -5648,17 +5604,11 @@
         <v>353653.5562127199</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>54</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5687,17 +5637,11 @@
         <v>351684.30161272</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>54</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5729,14 +5673,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>54</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5765,17 +5703,11 @@
         <v>354556.83161272</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>54</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5804,17 +5736,11 @@
         <v>312114.08001272</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>54</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5843,17 +5769,11 @@
         <v>312114.08001272</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>54</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5882,17 +5802,11 @@
         <v>274821.5598127199</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>54</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5921,17 +5835,11 @@
         <v>277567.3150127199</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>54</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5960,17 +5868,11 @@
         <v>277567.3150127199</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>54</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5999,17 +5901,11 @@
         <v>277567.3150127199</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>54</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6038,17 +5934,11 @@
         <v>309217.08971272</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>54</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6077,17 +5967,11 @@
         <v>309217.08971272</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>54</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6116,17 +6000,11 @@
         <v>309207.9656127199</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>54</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6155,17 +6033,11 @@
         <v>174723.09701272</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>54</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6194,17 +6066,11 @@
         <v>176884.7536127199</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>54</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6233,17 +6099,11 @@
         <v>68750.81271271994</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>54</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6272,17 +6132,11 @@
         <v>70493.27891271994</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>54</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6311,17 +6165,11 @@
         <v>30725.63271271993</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>54</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6350,17 +6198,11 @@
         <v>30725.63271271993</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>54</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6389,17 +6231,11 @@
         <v>31269.99861271993</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>54</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6428,17 +6264,11 @@
         <v>25769.99861271993</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>54</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6467,17 +6297,11 @@
         <v>25769.99861271993</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>54</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6506,17 +6330,11 @@
         <v>25760.87611271993</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>54</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6545,17 +6363,11 @@
         <v>80431.75906649993</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>54</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6584,17 +6396,11 @@
         <v>62273.05196644993</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>54</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6623,17 +6429,11 @@
         <v>61933.33456644993</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>54</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6662,17 +6462,11 @@
         <v>7920.630766449925</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>54</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6701,17 +6495,11 @@
         <v>54312.22129251993</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>54</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6743,14 +6531,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>54</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6782,14 +6564,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>54</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6821,14 +6597,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>54</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6860,14 +6630,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>54</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6899,14 +6663,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>54</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6938,14 +6696,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>54</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6977,14 +6729,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>54</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7016,14 +6762,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>54</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7055,14 +6795,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>54</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7094,14 +6828,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>54</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7133,14 +6861,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>54</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7169,17 +6891,11 @@
         <v>107439.7582837299</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>54</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7208,17 +6924,11 @@
         <v>-86373.08311627008</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>54</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7247,17 +6957,11 @@
         <v>-86373.08311627008</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>54</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7286,17 +6990,11 @@
         <v>-86373.08311627008</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>54</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7328,14 +7026,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>54</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7367,14 +7059,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>54</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7406,14 +7092,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>54</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7445,14 +7125,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>54</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7484,14 +7158,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>54</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7523,14 +7191,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>54</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7562,14 +7224,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>54</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7601,14 +7257,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>54</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7640,14 +7290,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>54</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7679,14 +7323,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>54</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7718,14 +7356,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>54</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7757,14 +7389,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>54</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7796,14 +7422,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>54</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7835,14 +7455,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>54</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7874,14 +7488,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>54</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7913,14 +7521,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>54</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7952,14 +7554,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>54</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7991,14 +7587,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>54</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8030,14 +7620,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>54</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8069,14 +7653,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>54</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8108,14 +7686,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>54</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8147,14 +7719,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>54</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8186,14 +7752,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>54</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8225,14 +7785,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>54</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8264,14 +7818,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>54</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8303,14 +7851,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>54</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8342,14 +7884,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>54</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8381,14 +7917,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>54</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8420,14 +7950,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>54</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8459,14 +7983,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>54</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8498,14 +8016,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>54</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8537,14 +8049,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>54</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8576,14 +8082,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>54</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8615,14 +8115,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>54</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8654,14 +8148,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>54</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8693,14 +8181,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>54</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8732,14 +8214,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>54</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8771,14 +8247,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>54</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8810,14 +8280,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>54</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8849,14 +8313,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>54</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8888,14 +8346,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>54</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8927,14 +8379,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>54</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8966,14 +8412,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>54</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9005,14 +8445,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>54</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9044,14 +8478,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>54</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9080,17 +8508,11 @@
         <v>246000247.6357948</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>54</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9119,17 +8541,11 @@
         <v>246000247.6357948</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>54</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9158,17 +8574,11 @@
         <v>245846909.6357948</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>54</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9197,17 +8607,11 @@
         <v>246180835.6357948</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>54</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9236,17 +8640,11 @@
         <v>246180835.6357948</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>54</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9278,14 +8676,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>54</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9317,14 +8709,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>54</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9353,17 +8739,11 @@
         <v>246428861.7164948</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>54</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9392,17 +8772,11 @@
         <v>246422531.4968948</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>54</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9431,17 +8805,11 @@
         <v>246410739.9670948</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>54</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9470,17 +8838,11 @@
         <v>246410739.9670948</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>54</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9509,17 +8871,11 @@
         <v>246410739.9670948</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>54</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9548,17 +8904,11 @@
         <v>246410739.9670948</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>54</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9587,17 +8937,11 @@
         <v>246399911.8031948</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>54</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9626,17 +8970,11 @@
         <v>246372059.7990638</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>54</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9668,14 +9006,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>54</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9704,17 +9036,11 @@
         <v>246337424.3751638</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>54</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9746,14 +9072,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>54</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9785,14 +9105,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>54</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9824,14 +9138,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>54</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9860,17 +9168,11 @@
         <v>246366761.4289638</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>54</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9899,17 +9201,11 @@
         <v>246366761.4289638</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>54</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9938,17 +9234,11 @@
         <v>246366761.4289638</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>54</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9977,17 +9267,11 @@
         <v>246366761.4289638</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>54</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10016,17 +9300,11 @@
         <v>246377944.0859638</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>54</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10055,17 +9333,11 @@
         <v>246364681.3639638</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>54</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10094,17 +9366,11 @@
         <v>246350737.5092638</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>54</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10133,17 +9399,11 @@
         <v>246350737.5092638</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>54</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10172,17 +9432,11 @@
         <v>246364152.9469638</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>54</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10211,17 +9465,11 @@
         <v>246364152.9469638</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>54</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10250,17 +9498,11 @@
         <v>246364152.9469638</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>54</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10289,17 +9531,11 @@
         <v>246364132.9469638</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>54</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10328,17 +9564,11 @@
         <v>246364132.9469638</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>54</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10370,14 +9600,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>54</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10409,14 +9633,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>54</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10445,17 +9663,11 @@
         <v>246402333.0459638</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>54</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10487,14 +9699,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>54</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10526,14 +9732,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>54</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10565,14 +9765,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>54</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10604,14 +9798,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>54</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10643,14 +9831,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>54</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10682,14 +9864,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>54</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10721,14 +9897,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>54</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10760,14 +9930,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>54</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10799,14 +9963,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>54</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10838,14 +9996,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>54</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10877,14 +10029,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>54</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10916,14 +10062,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>54</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10955,14 +10095,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>54</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10994,14 +10128,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>54</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11033,14 +10161,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>54</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11072,14 +10194,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>54</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11111,14 +10227,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>54</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11150,14 +10260,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>54</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11189,14 +10293,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>54</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11228,14 +10326,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>54</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11267,14 +10359,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>54</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11306,14 +10392,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>54</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11345,14 +10425,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>54</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11384,14 +10458,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>54</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11423,14 +10491,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>54</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11462,14 +10524,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>54</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11498,17 +10554,11 @@
         <v>246253726.7379718</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>54</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11540,14 +10590,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>54</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11579,14 +10623,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>54</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11618,14 +10656,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>54</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11657,14 +10689,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>54</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11696,14 +10722,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>54</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11735,14 +10755,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>54</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11774,14 +10788,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>54</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11810,17 +10818,11 @@
         <v>246185867.8600718</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>54</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11849,17 +10851,11 @@
         <v>246185411.1658718</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>54</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11891,14 +10887,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>54</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11930,14 +10920,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>54</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11969,14 +10953,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>54</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -12008,14 +10986,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>54</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12047,14 +11019,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>54</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12086,14 +11052,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>54</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12125,14 +11085,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>54</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12164,14 +11118,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>54</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12203,14 +11151,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>54</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12239,17 +11181,11 @@
         <v>246539933.5098718</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>54</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12278,17 +11214,11 @@
         <v>246542137.1508718</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>54</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12317,17 +11247,11 @@
         <v>246543951.9879718</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>54</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12356,17 +11280,11 @@
         <v>246540111.4851719</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>54</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12395,17 +11313,11 @@
         <v>246540120.5862719</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>54</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12434,17 +11346,11 @@
         <v>246538879.9320719</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>54</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12473,17 +11379,11 @@
         <v>246759699.9698222</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>54</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12512,17 +11412,11 @@
         <v>246710122.1369222</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>54</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12551,17 +11445,11 @@
         <v>246687223.4702222</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>54</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12590,17 +11478,11 @@
         <v>246698208.1219263</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>54</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12629,17 +11511,11 @@
         <v>246678267.5817263</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>54</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12668,17 +11544,11 @@
         <v>246678267.5817263</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>54</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12707,17 +11577,11 @@
         <v>246678881.4067263</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>54</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12746,17 +11610,11 @@
         <v>246674545.6858263</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>54</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12785,17 +11643,11 @@
         <v>246674545.6858263</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>54</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12827,14 +11679,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>54</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12863,17 +11709,11 @@
         <v>246675024.0448263</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>54</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12902,17 +11742,11 @@
         <v>246679925.0995263</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>54</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12944,14 +11778,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>54</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12983,14 +11811,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>54</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -13019,17 +11841,11 @@
         <v>246676714.2796263</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>54</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13061,14 +11877,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>54</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13100,14 +11910,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>54</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13139,14 +11943,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>54</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13175,17 +11973,11 @@
         <v>246665169.9156263</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>54</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13214,17 +12006,11 @@
         <v>246649814.8912263</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>54</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13256,14 +12042,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>54</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13295,14 +12075,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>54</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13331,17 +12105,11 @@
         <v>246710773.6893263</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>54</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13373,14 +12141,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>54</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13412,14 +12174,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>54</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13451,14 +12207,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>54</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13490,14 +12240,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>54</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13529,14 +12273,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>54</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13568,14 +12306,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>54</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13607,14 +12339,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>54</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13643,17 +12369,11 @@
         <v>246709758.3749262</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>54</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13685,14 +12405,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>54</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13724,14 +12438,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>54</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13760,17 +12468,11 @@
         <v>246673480.2028262</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>54</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13802,14 +12504,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>54</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13841,14 +12537,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>54</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13880,14 +12570,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>54</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13919,14 +12603,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>54</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13958,14 +12636,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>54</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13997,14 +12669,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>54</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -14036,14 +12702,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>54</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14075,14 +12735,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>54</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14114,14 +12768,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>54</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14153,14 +12801,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>54</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14192,14 +12834,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>54</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14231,14 +12867,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>54</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14270,14 +12900,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>54</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14309,14 +12933,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>54</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14348,14 +12966,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>54</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14387,14 +12999,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>54</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14426,14 +13032,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>54</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14465,14 +13065,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>54</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14504,14 +13098,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>54</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14543,14 +13131,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>54</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14582,14 +13164,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>54</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14621,14 +13197,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>54</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14660,14 +13230,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>54</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14699,14 +13263,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>54</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14738,14 +13296,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>54</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14777,14 +13329,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>54</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14816,14 +13362,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>54</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14855,14 +13395,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>54</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14894,14 +13428,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>54</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14933,14 +13461,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>54</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14972,14 +13494,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>54</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -15011,14 +13527,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>54</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -15050,14 +13560,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>54</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15089,14 +13593,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>54</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15128,14 +13626,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>54</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15167,14 +13659,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>54</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15206,14 +13692,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>54</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15245,14 +13725,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>54</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15284,14 +13758,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>54</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15320,17 +13788,11 @@
         <v>246613851.7751987</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>54</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15359,17 +13821,11 @@
         <v>246613572.2011987</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>54</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15398,17 +13854,11 @@
         <v>246599141.7018987</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>54</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15437,17 +13887,11 @@
         <v>246599141.7018987</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>54</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15476,17 +13920,11 @@
         <v>246599141.7018987</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>54</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15515,17 +13953,11 @@
         <v>246636185.3707987</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>54</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15554,17 +13986,11 @@
         <v>246624050.2103987</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>54</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15593,17 +14019,11 @@
         <v>246624050.2103987</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>54</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15632,17 +14052,11 @@
         <v>246621938.5014987</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>54</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15671,17 +14085,11 @@
         <v>246621938.5014987</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>54</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15710,17 +14118,11 @@
         <v>246591721.8230987</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>54</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15749,17 +14151,11 @@
         <v>246585926.8211987</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>54</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15788,17 +14184,11 @@
         <v>246608464.2036987</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>54</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15827,17 +14217,11 @@
         <v>246586552.3572987</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>54</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15866,17 +14250,11 @@
         <v>246680052.9189987</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>54</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15905,17 +14283,11 @@
         <v>246687422.9972987</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>54</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15944,17 +14316,11 @@
         <v>246664507.4280987</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>54</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15983,17 +14349,11 @@
         <v>246663788.4013987</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>54</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -16022,17 +14382,11 @@
         <v>246663788.4013987</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>54</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -16061,17 +14415,11 @@
         <v>246663788.4013987</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>54</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -16100,17 +14448,11 @@
         <v>246663788.4013987</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>54</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -16139,17 +14481,11 @@
         <v>246663797.4266987</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>54</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -16178,17 +14514,11 @@
         <v>246663797.4266987</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>54</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -16217,17 +14547,11 @@
         <v>246663797.4266987</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>54</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -16256,17 +14580,11 @@
         <v>246662763.8526987</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>54</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16295,17 +14613,11 @@
         <v>246662763.8526987</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>54</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16334,17 +14646,11 @@
         <v>246662772.8779987</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>54</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16373,17 +14679,11 @@
         <v>246662772.8779987</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>54</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16412,17 +14712,11 @@
         <v>246662750.4228987</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>54</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16451,17 +14745,11 @@
         <v>246659560.5708987</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>54</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16490,17 +14778,11 @@
         <v>246685949.2945987</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>54</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16529,17 +14811,11 @@
         <v>246685949.2945987</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>54</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16568,17 +14844,11 @@
         <v>246685556.1813987</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>54</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16607,17 +14877,11 @@
         <v>246685574.2843987</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>54</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16646,17 +14910,11 @@
         <v>246685565.2328987</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>54</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16685,17 +14943,11 @@
         <v>246690967.1578987</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>54</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16724,17 +14976,11 @@
         <v>246690937.1578987</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>54</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16763,17 +15009,11 @@
         <v>246693931.9052987</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>54</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16802,17 +15042,11 @@
         <v>246689075.0631987</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>54</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16841,17 +15075,11 @@
         <v>246718754.3274987</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>54</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16880,17 +15108,11 @@
         <v>246722222.3529987</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>54</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16919,17 +15141,11 @@
         <v>246722204.2533987</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>54</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16958,17 +15174,11 @@
         <v>246722256.3778987</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>54</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16997,17 +15207,11 @@
         <v>246704218.3014987</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>54</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -17036,17 +15240,11 @@
         <v>246670318.3014987</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>54</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -17075,17 +15273,11 @@
         <v>246670318.3014987</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>54</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -17117,14 +15309,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>54</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -17156,14 +15342,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>54</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -17192,17 +15372,11 @@
         <v>246777567.9916683</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>54</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -17231,17 +15405,11 @@
         <v>246789231.3703683</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>54</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -17270,17 +15438,11 @@
         <v>246789231.3703683</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>54</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -17309,17 +15471,11 @@
         <v>246785030.3086683</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>54</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17348,17 +15504,11 @@
         <v>246785030.3086683</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>54</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17387,17 +15537,11 @@
         <v>246788828.3476683</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>54</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17426,17 +15570,11 @@
         <v>246818428.7097683</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>54</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17465,17 +15603,11 @@
         <v>246818428.7097683</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>54</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17507,14 +15639,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>54</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17543,17 +15669,11 @@
         <v>246822827.4582683</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>54</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17582,17 +15702,11 @@
         <v>246831015.8382683</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>54</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17621,17 +15735,11 @@
         <v>246831015.8382683</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>54</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17660,17 +15768,11 @@
         <v>246831015.8382683</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>54</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17699,17 +15801,11 @@
         <v>246855665.7261868</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>54</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17738,17 +15834,11 @@
         <v>246855665.7261868</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>54</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17777,17 +15867,11 @@
         <v>246924776.6103683</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>54</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17816,17 +15900,11 @@
         <v>247013870.1878107</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>54</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17855,17 +15933,11 @@
         <v>247013849.7540106</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>54</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17894,17 +15966,11 @@
         <v>247071143.0006106</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>54</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17933,17 +15999,11 @@
         <v>247196568.3668106</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>54</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17972,17 +16032,11 @@
         <v>247194243.7992106</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>54</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -18011,17 +16065,11 @@
         <v>247203095.8891106</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>54</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -18050,17 +16098,11 @@
         <v>247203110.4640106</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>54</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -18089,17 +16131,11 @@
         <v>247196502.3312106</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>54</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -18128,17 +16164,11 @@
         <v>247223975.2850106</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>54</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -18167,17 +16197,11 @@
         <v>247223975.2850106</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>54</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -18206,17 +16230,11 @@
         <v>247223975.2850106</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>54</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -18245,17 +16263,11 @@
         <v>247226326.2267106</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>54</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -18284,17 +16296,11 @@
         <v>247226326.2267106</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>54</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -18323,17 +16329,11 @@
         <v>245675879.6728106</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>54</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18362,17 +16362,11 @@
         <v>245675879.6728106</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>54</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18404,16 +16398,10 @@
         <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>54</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
-        <v>1.028703703703704</v>
+        <v>1</v>
       </c>
       <c r="M460" t="inlineStr"/>
     </row>
@@ -18605,7 +16593,7 @@
         <v>245693380.9310106</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -18638,7 +16626,7 @@
         <v>245673829.7799106</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -18671,7 +16659,7 @@
         <v>245693142.8604106</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -18704,7 +16692,7 @@
         <v>245671022.5708146</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -18737,7 +16725,7 @@
         <v>245655112.3106146</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -18869,7 +16857,7 @@
         <v>245519166.3059147</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -19397,7 +17385,7 @@
         <v>245468809.4982147</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -19430,7 +17418,7 @@
         <v>245342040.2455147</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -19463,7 +17451,7 @@
         <v>245342040.2455147</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -19496,7 +17484,7 @@
         <v>245300294.6011147</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -19529,7 +17517,7 @@
         <v>245300294.6011147</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -19562,7 +17550,7 @@
         <v>245292026.8948147</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -19595,7 +17583,7 @@
         <v>245292026.8948147</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19628,7 +17616,7 @@
         <v>245292035.9006147</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19661,7 +17649,7 @@
         <v>245295449.2556147</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19694,7 +17682,7 @@
         <v>245295459.2556147</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19727,7 +17715,7 @@
         <v>245295459.2556147</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19760,7 +17748,7 @@
         <v>245290229.9681147</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19793,7 +17781,7 @@
         <v>245313134.8092147</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19826,7 +17814,7 @@
         <v>245308084.8143147</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19859,7 +17847,7 @@
         <v>245362819.1398147</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19892,7 +17880,7 @@
         <v>245437221.1265147</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19925,7 +17913,7 @@
         <v>245437221.1265147</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19958,7 +17946,7 @@
         <v>245317780.7822147</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19991,7 +17979,7 @@
         <v>245317780.7822147</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -20024,7 +18012,7 @@
         <v>245317780.7822147</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -20057,7 +18045,7 @@
         <v>245317830.7822147</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -20090,7 +18078,7 @@
         <v>245313313.5407147</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -20123,7 +18111,7 @@
         <v>245313313.5407147</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -20156,7 +18144,7 @@
         <v>245315715.9331147</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -20189,7 +18177,7 @@
         <v>245288175.4305147</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -20222,7 +18210,7 @@
         <v>245310683.6976712</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -20255,7 +18243,7 @@
         <v>245301289.3042712</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -20288,7 +18276,7 @@
         <v>245301289.3042712</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -20321,7 +18309,7 @@
         <v>245322834.0161712</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -20354,7 +18342,7 @@
         <v>245295979.2541712</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -20387,7 +18375,7 @@
         <v>245295979.2541712</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -20420,7 +18408,7 @@
         <v>245295979.2541712</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -20453,7 +18441,7 @@
         <v>245296697.6156712</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -20486,7 +18474,7 @@
         <v>245293101.3013712</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -20519,7 +18507,7 @@
         <v>245293101.3013712</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -20552,7 +18540,7 @@
         <v>245293101.3013712</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -20585,7 +18573,7 @@
         <v>245293674.9885487</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -20618,7 +18606,7 @@
         <v>245218035.0030487</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20651,7 +18639,7 @@
         <v>245218035.0030487</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20684,7 +18672,7 @@
         <v>245218035.0030487</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20717,7 +18705,7 @@
         <v>245237856.1202487</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20750,7 +18738,7 @@
         <v>245173188.6195487</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20783,7 +18771,7 @@
         <v>245178072.6321487</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20816,7 +18804,7 @@
         <v>245178731.9474487</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20849,7 +18837,7 @@
         <v>245178731.9474487</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20882,7 +18870,7 @@
         <v>245172820.4171487</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20915,7 +18903,7 @@
         <v>245161800.0080487</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20948,7 +18936,7 @@
         <v>245186624.4911886</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20981,7 +18969,7 @@
         <v>245186624.4911886</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -21014,7 +19002,7 @@
         <v>245186341.7911886</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -21047,7 +19035,7 @@
         <v>245186341.7911886</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -21080,7 +19068,7 @@
         <v>245185776.6065284</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -21113,7 +19101,7 @@
         <v>245184714.1384284</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -21278,7 +19266,7 @@
         <v>245184714.1384284</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -21377,7 +19365,7 @@
         <v>245275580.0664284</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -21410,7 +19398,7 @@
         <v>245275580.0664284</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -21443,7 +19431,7 @@
         <v>245314944.4428284</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -21476,7 +19464,7 @@
         <v>245396694.5737284</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21575,7 +19563,7 @@
         <v>245296937.8954743</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -21608,7 +19596,7 @@
         <v>245259933.6120743</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -21641,7 +19629,7 @@
         <v>245260445.7374743</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21674,7 +19662,7 @@
         <v>245259844.7374743</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21740,7 +19728,7 @@
         <v>245220847.5449743</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21773,7 +19761,7 @@
         <v>245169316.4146743</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21806,7 +19794,7 @@
         <v>245053968.3551743</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21839,7 +19827,7 @@
         <v>245079026.9231743</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -21872,7 +19860,7 @@
         <v>245079026.9231743</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21905,7 +19893,7 @@
         <v>245038639.7557743</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -21938,7 +19926,7 @@
         <v>245028181.9815743</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -21971,7 +19959,7 @@
         <v>245033693.9815743</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -22004,7 +19992,7 @@
         <v>245035855.5663743</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -22037,7 +20025,7 @@
         <v>245103851.9993743</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -22070,7 +20058,7 @@
         <v>245103851.9993743</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -22103,7 +20091,7 @@
         <v>245103851.9993743</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -22136,7 +20124,7 @@
         <v>245151314.8891743</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -22169,7 +20157,7 @@
         <v>245149047.0646743</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -22202,7 +20190,7 @@
         <v>245136965.4028744</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -22235,7 +20223,7 @@
         <v>245136965.4028744</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -22268,7 +20256,7 @@
         <v>245136965.4028744</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -22301,7 +20289,7 @@
         <v>245136965.4028744</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -22334,7 +20322,7 @@
         <v>245105383.3463744</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -22367,7 +20355,7 @@
         <v>245159233.8872744</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -22400,7 +20388,7 @@
         <v>245026794.7120744</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -22433,7 +20421,7 @@
         <v>244995682.4852744</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -22631,7 +20619,7 @@
         <v>244838905.8136217</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22664,7 +20652,7 @@
         <v>244841205.8136217</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22697,7 +20685,7 @@
         <v>244833696.8136217</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22730,7 +20718,7 @@
         <v>244835761.9695217</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22763,7 +20751,7 @@
         <v>244835761.9695217</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22796,7 +20784,7 @@
         <v>244835761.9695217</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22829,7 +20817,7 @@
         <v>244821588.3335217</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22862,7 +20850,7 @@
         <v>244821588.3335217</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -22895,7 +20883,7 @@
         <v>244845900.7402216</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -22928,7 +20916,7 @@
         <v>244845900.7402216</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22961,7 +20949,7 @@
         <v>244827132.4595217</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22994,7 +20982,7 @@
         <v>244813598.4845217</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -23027,7 +21015,7 @@
         <v>244813598.4845217</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -23060,7 +21048,7 @@
         <v>244821399.6164217</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -23093,7 +21081,7 @@
         <v>244785895.8196217</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -23126,7 +21114,7 @@
         <v>244781240.6747217</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -23159,7 +21147,7 @@
         <v>244771876.5099217</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -23192,7 +21180,7 @@
         <v>244799578.7085217</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -23225,7 +21213,7 @@
         <v>244799578.7085217</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -23291,7 +21279,7 @@
         <v>244890165.1765217</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -23489,7 +21477,7 @@
         <v>245131895.3042217</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -23522,7 +21510,7 @@
         <v>245169358.7220217</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -23654,7 +21642,7 @@
         <v>245279564.5043217</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -23687,7 +21675,7 @@
         <v>245281564.5043217</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -23720,7 +21708,7 @@
         <v>245281564.5043217</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -23753,7 +21741,7 @@
         <v>245252066.5324217</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -23786,7 +21774,7 @@
         <v>245252066.5324217</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -23819,7 +21807,7 @@
         <v>245176413.9121217</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -23852,7 +21840,7 @@
         <v>245176413.9121217</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -23885,7 +21873,7 @@
         <v>245179037.7376218</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -23918,7 +21906,7 @@
         <v>245179037.7376218</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -23951,7 +21939,7 @@
         <v>245179037.7376218</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -23984,7 +21972,7 @@
         <v>245169771.8320217</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -24017,7 +22005,7 @@
         <v>245178282.0085217</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -24050,7 +22038,7 @@
         <v>245205301.5744217</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -24083,7 +22071,7 @@
         <v>245217781.5993217</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -24116,7 +22104,7 @@
         <v>245305192.0524708</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -24149,7 +22137,7 @@
         <v>245269225.3914708</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -24182,7 +22170,7 @@
         <v>245282198.3178708</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -24215,7 +22203,7 @@
         <v>245261819.1286708</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -24248,7 +22236,7 @@
         <v>245243170.8413708</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -24281,7 +22269,7 @@
         <v>245243170.8413708</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -24314,7 +22302,7 @@
         <v>245243381.2680803</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -24347,7 +22335,7 @@
         <v>245243381.2680803</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -24380,7 +22368,7 @@
         <v>245253618.5192803</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -24413,7 +22401,7 @@
         <v>245254571.9048803</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -24446,7 +22434,7 @@
         <v>245184473.9521803</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -24479,7 +22467,7 @@
         <v>245195827.5548118</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -24512,7 +22500,7 @@
         <v>245153888.1412118</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -24545,7 +22533,7 @@
         <v>245153888.1412118</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -24578,7 +22566,7 @@
         <v>245170429.0179118</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -24611,7 +22599,7 @@
         <v>245170429.0179118</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -24644,7 +22632,7 @@
         <v>245170429.0179118</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -24677,7 +22665,7 @@
         <v>245170429.0179118</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -24710,7 +22698,7 @@
         <v>245149129.6404118</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -24743,7 +22731,7 @@
         <v>245186623.8902118</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -24776,7 +22764,7 @@
         <v>245158259.9638118</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -24809,7 +22797,7 @@
         <v>244818958.6334118</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -24842,7 +22830,7 @@
         <v>244818958.6334118</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -24875,7 +22863,7 @@
         <v>244832749.6786118</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -24908,7 +22896,7 @@
         <v>244910413.5992118</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -24941,7 +22929,7 @@
         <v>244954768.245032</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -24974,7 +22962,7 @@
         <v>245346515.595532</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -25007,7 +22995,7 @@
         <v>245346515.595532</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -25040,7 +23028,7 @@
         <v>245366927.309432</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -25073,7 +23061,7 @@
         <v>245294396.202932</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -25106,7 +23094,7 @@
         <v>245222755.346532</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -25139,7 +23127,7 @@
         <v>245244097.942932</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -25172,7 +23160,7 @@
         <v>245367935.894032</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -25205,7 +23193,7 @@
         <v>245367935.894032</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -25238,7 +23226,7 @@
         <v>245367935.894032</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -25271,7 +23259,7 @@
         <v>245943299.9442419</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -25304,7 +23292,7 @@
         <v>245943299.9442419</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -25315,6 +23303,6 @@
       <c r="M669" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>